--- a/planner/configexport/template.xlsx
+++ b/planner/configexport/template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
   <si>
     <t>配置名称</t>
   </si>
@@ -44,6 +44,9 @@
     <t>信息2</t>
   </si>
   <si>
+    <t>abdb</t>
+  </si>
+  <si>
     <t>字段名称</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
     <t>other</t>
   </si>
   <si>
+    <t>sdas</t>
+  </si>
+  <si>
     <t>字段类型</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
     <t>[]{id:int,name:string}</t>
   </si>
   <si>
+    <t>asvasd</t>
+  </si>
+  <si>
     <t>导出参数</t>
   </si>
   <si>
@@ -92,6 +101,9 @@
     <t>s</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
@@ -104,16 +116,37 @@
     <t>[{"id": 1, "name":"张飞"}, {"id": 2, "name":"刘备"}]</t>
   </si>
   <si>
+    <t>af</t>
+  </si>
+  <si>
     <t>b</t>
   </si>
   <si>
     <t>d</t>
   </si>
   <si>
+    <t>sag</t>
+  </si>
+  <si>
+    <t>sdgasd</t>
+  </si>
+  <si>
+    <t>gasdg</t>
+  </si>
+  <si>
     <t>UNConfig</t>
   </si>
   <si>
     <t>字段值</t>
+  </si>
+  <si>
+    <t>fd</t>
+  </si>
+  <si>
+    <t>fa</t>
+  </si>
+  <si>
+    <t>sa</t>
   </si>
 </sst>
 </file>
@@ -1090,13 +1123,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="12.625"/>
@@ -1120,7 +1153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1139,82 +1172,97 @@
       <c r="F4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -1222,16 +1270,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -1239,33 +1287,46 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="6:6">
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1278,10 +1339,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1297,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1313,16 +1374,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1330,13 +1391,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1347,16 +1408,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1364,16 +1425,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1381,16 +1442,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1398,16 +1459,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/planner/configexport/template.xlsx
+++ b/planner/configexport/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23925" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="23925" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="有索引" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
   <si>
     <t>配置名称</t>
   </si>
   <si>
-    <t>XXConfig</t>
+    <t>IndexConfig</t>
   </si>
   <si>
     <t>索引数量</t>
@@ -44,9 +44,6 @@
     <t>信息2</t>
   </si>
   <si>
-    <t>abdb</t>
-  </si>
-  <si>
     <t>字段名称</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>other</t>
   </si>
   <si>
-    <t>sdas</t>
-  </si>
-  <si>
     <t>字段类型</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
     <t>[]{id:int,name:string}</t>
   </si>
   <si>
-    <t>asvasd</t>
-  </si>
-  <si>
     <t>导出参数</t>
   </si>
   <si>
@@ -116,37 +107,16 @@
     <t>[{"id": 1, "name":"张飞"}, {"id": 2, "name":"刘备"}]</t>
   </si>
   <si>
-    <t>af</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
     <t>d</t>
   </si>
   <si>
-    <t>sag</t>
-  </si>
-  <si>
-    <t>sdgasd</t>
-  </si>
-  <si>
-    <t>gasdg</t>
-  </si>
-  <si>
-    <t>UNConfig</t>
+    <t>EasyConfig</t>
   </si>
   <si>
     <t>字段值</t>
-  </si>
-  <si>
-    <t>fd</t>
-  </si>
-  <si>
-    <t>fa</t>
-  </si>
-  <si>
-    <t>sa</t>
   </si>
 </sst>
 </file>
@@ -159,10 +129,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -312,7 +289,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +298,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -506,12 +495,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -620,10 +624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,36 +636,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,99 +672,111 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -774,6 +787,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1123,210 +1148,186 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="12.625"/>
-    <col min="5" max="5" width="74.625" customWidth="1"/>
-    <col min="6" max="6" width="49.25" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="12.625" style="2"/>
+    <col min="5" max="5" width="74.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="57.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I6" t="s">
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+      <c r="E8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B8">
+      <c r="F8" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3" t="s">
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="6:6">
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5">
-      <c r="E19" t="s">
-        <v>38</v>
+      <c r="D11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1339,151 +1340,147 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="12.625"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="64.875" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
     <col min="5" max="5" width="74.625" customWidth="1"/>
     <col min="6" max="6" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E8" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/planner/configexport/template.xlsx
+++ b/planner/configexport/template.xlsx
@@ -4,18 +4,133 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23925" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="有索引" sheetId="1" r:id="rId1"/>
-    <sheet name="无索引" sheetId="2" r:id="rId2"/>
+    <sheet name="#规则" sheetId="3" r:id="rId1"/>
+    <sheet name="有索引" sheetId="1" r:id="rId2"/>
+    <sheet name="无索引" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="67">
+  <si>
+    <t>配置表说明
+- 配置表分为“有索引配置表”和“无索引配置表”
+    - 有索引配置表：用于需要唯一索引的数据，支持多级索引，例如：
+        - 书籍配置，每本书有所属的分类和不同的编号，那么数据可以看作：类型索引：1，编号索引：1，书本名字、书本描述...
+        - 等级配置，每个等级对应的属性不同，那么数据可以看作：等级索引：1，生命值、体力值、下一级经验值
+    - 无索引配置表：一般用于全局配置，无需索引的配置信息，例如：
+        - 新玩家配置：初始化资源、出生点位置
+    - 模板可以参考 Sheet “有索引”和“无索引”
+- 配置名称：不同的配置名称将会生成不同的配置文件，如果存在相同名称的配置文件将仅保留一份，其他的会被忽略
+- 索引数量：为 0 需要使用无索引模板，反之使用有索引模板。有索引模板的索引数量对应前 N 个字段
+- 字段类型：指定字段的数据类型，影响生成的配置文件
+- 导出参数：包含s时将导出服务端配置，包含c时将导出客户端配置，同时包含sc时将导出客户端和服务端配置
+字段遵循 JSON 规范</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>字段说明</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>字符串</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>整数（推荐使用）</t>
+  </si>
+  <si>
+    <t>int8</t>
+  </si>
+  <si>
+    <t>整数（-128~127）</t>
+  </si>
+  <si>
+    <t>int16</t>
+  </si>
+  <si>
+    <t>整数（-32768~32767）</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>整数（-2147483648~2147483647）</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>整数（-9223372036854775808~9223372036854775807）</t>
+  </si>
+  <si>
+    <t>uint</t>
+  </si>
+  <si>
+    <t>无符号整数（不支持负数）</t>
+  </si>
+  <si>
+    <t>uint8</t>
+  </si>
+  <si>
+    <t>uint16</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>uint64</t>
+  </si>
+  <si>
+    <t>float32</t>
+  </si>
+  <si>
+    <t>浮点数（小数）</t>
+  </si>
+  <si>
+    <t>float64</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>整数（uint8）</t>
+  </si>
+  <si>
+    <t>rune</t>
+  </si>
+  <si>
+    <t>整数（int32）</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>true 或 false</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
   <si>
     <t>配置名称</t>
   </si>
@@ -23,6 +138,9 @@
     <t>IndexConfig</t>
   </si>
   <si>
+    <t>注释</t>
+  </si>
+  <si>
     <t>索引数量</t>
   </si>
   <si>
@@ -62,15 +180,6 @@
     <t>other</t>
   </si>
   <si>
-    <t>字段类型</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>[]string</t>
   </si>
   <si>
@@ -117,6 +226,9 @@
   </si>
   <si>
     <t>字段值</t>
+  </si>
+  <si>
+    <t>#次数</t>
   </si>
 </sst>
 </file>
@@ -129,7 +241,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,8 +250,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -298,13 +426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.35"/>
+        <fgColor theme="1" tint="0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,10 +752,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,37 +764,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,98 +797,104 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,7 +904,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -788,16 +919,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -859,6 +1002,148 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7600950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6991350" y="2905125"/>
+          <a:ext cx="7010400" cy="3676650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>其他说明：</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、字段描述列开头为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> “#” </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>时，本行将被忽略；</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Sheet </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的名称或者配置名称开头为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>“#”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，该配置将被忽略；</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、非配置内容区域外的单元格均可以用来做数值计算、备注等；</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、配置行中如果发生空行将忽略后方的所有数据，如果要跳过某一行请使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>“#”</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1148,13 +1433,229 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="119.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="219" customHeight="1" spans="1:8">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" ht="12" customHeight="1" spans="1:8">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="12.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
@@ -1163,120 +1664,155 @@
     <col min="6" max="6" width="57.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="6:6">
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
+      <c r="D6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>29</v>
+        <v>58</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -1284,33 +1820,39 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
+        <v>62</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>29</v>
+        <v>55</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -1318,16 +1860,42 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>29</v>
+        <v>63</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6">
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1337,16 +1905,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="64.875" customWidth="1"/>
@@ -1357,17 +1925,17 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -1381,106 +1949,160 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>55</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>28</v>
+        <v>56</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>29</v>
+        <v>54</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="6:6">
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
